--- a/Data/Tables/Bias_Detection_Violent_Representation_Numbers.xlsx
+++ b/Data/Tables/Bias_Detection_Violent_Representation_Numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033EBE3A-DA51-47BF-9E64-09F3ACCB9780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1C0596-112D-44A7-8508-58E7EDE8C2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{01148236-0E3A-41EC-A501-E5FB4C731FFA}"/>
   </bookViews>
@@ -775,10 +775,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445C94FD-A203-4EF7-AC65-DA43755DEC7F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A36" zoomScale="77" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2189,16 +2192,20 @@
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A32:A37"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1082A0FD-D701-45E3-A926-C99FF4668F18}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView zoomScale="39" workbookViewId="0">
+      <selection activeCell="Q53" sqref="A1:Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3610,16 +3617,20 @@
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A31"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69287C9A-8FAF-4C60-8531-B18B089A539E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScale="37" workbookViewId="0">
+      <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5031,6 +5042,7 @@
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A31"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>